--- a/results/trend_volatility_results/processed_4phases_data/pivots/pivots_4phases_actionable_D1.xlsx
+++ b/results/trend_volatility_results/processed_4phases_data/pivots/pivots_4phases_actionable_D1.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,14 +429,13 @@
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
     <col width="26" customWidth="1" min="4" max="4"/>
-    <col width="33" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
-    <col width="21" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="31" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="31" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -464,40 +463,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>weighted_avg_execution_spread_$</t>
+          <t>volume_weighted_avg_spread_in_USD</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>volume_weighted_avg_spread_in_USD</t>
+          <t>PnL_per_lot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PnL_per_lot</t>
+          <t>total_profit</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>total_profit</t>
+          <t>pct_total_profit</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>pct_total_profit</t>
+          <t>total_volume</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>total_volume</t>
+          <t>pct_total_volume</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>pct_total_volume</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
         <is>
           <t>pct_impact_on_PnL_exec_spread</t>
         </is>
@@ -517,37 +511,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" t="n">
-        <v>37.09884467265726</v>
+        <v>36.97047496790758</v>
       </c>
       <c r="D4" t="n">
-        <v>9.183673469385836</v>
+        <v>9.183673469387756</v>
       </c>
       <c r="E4" t="n">
-        <v>8.790840159702247</v>
+        <v>8.321354519438749</v>
       </c>
       <c r="F4" t="n">
-        <v>6.775283030993225</v>
+        <v>-6.695116692594337</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.186673024459556</v>
+        <v>-29406158.84</v>
       </c>
       <c r="H4" t="n">
-        <v>-31649671.05</v>
+        <v>27.77707824953054</v>
       </c>
       <c r="I4" t="n">
-        <v>30.88703560307682</v>
+        <v>4392180.18</v>
       </c>
       <c r="J4" t="n">
-        <v>4403939.2</v>
+        <v>37.85304652439557</v>
       </c>
       <c r="K4" t="n">
-        <v>38.0977497703277</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1391464446199987</v>
+        <v>0.1493625945468776</v>
       </c>
     </row>
     <row r="5">
@@ -557,37 +548,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" t="n">
-        <v>22.46469833119384</v>
+        <v>22.59306803594352</v>
       </c>
       <c r="D5" t="n">
-        <v>9.241379310344881</v>
+        <v>9.241379310344827</v>
       </c>
       <c r="E5" t="n">
-        <v>8.952157858074999</v>
+        <v>8.728223779357057</v>
       </c>
       <c r="F5" t="n">
-        <v>7.495545538133514</v>
+        <v>-17.23438850857107</v>
       </c>
       <c r="G5" t="n">
-        <v>-15.55815527216887</v>
+        <v>-48573527.59</v>
       </c>
       <c r="H5" t="n">
-        <v>-42876340.34</v>
+        <v>45.88258820420493</v>
       </c>
       <c r="I5" t="n">
-        <v>41.84318530575118</v>
+        <v>2818407.37</v>
       </c>
       <c r="J5" t="n">
-        <v>2755875.59</v>
+        <v>24.28982895262493</v>
       </c>
       <c r="K5" t="n">
-        <v>23.84062400906311</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.06427497235413539</v>
+        <v>0.05802352659641372</v>
       </c>
     </row>
     <row r="6">
@@ -597,37 +585,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C6" t="n">
-        <v>26.70089858793325</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="D6" t="n">
-        <v>10.69230769230482</v>
+        <v>10.69230769230769</v>
       </c>
       <c r="E6" t="n">
-        <v>8.664166648153284</v>
+        <v>8.144813843788437</v>
       </c>
       <c r="F6" t="n">
-        <v>6.37885132842826</v>
+        <v>-5.240664324645246</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.484628053942252</v>
+        <v>-15247926.2</v>
       </c>
       <c r="H6" t="n">
-        <v>-15811959.51</v>
+        <v>14.40320177500839</v>
       </c>
       <c r="I6" t="n">
-        <v>15.43095204901913</v>
+        <v>2909540.71</v>
       </c>
       <c r="J6" t="n">
-        <v>2882959.31</v>
+        <v>25.07524175846833</v>
       </c>
       <c r="K6" t="n">
-        <v>24.94000425583</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.1823277695706672</v>
+        <v>0.1908155031600297</v>
       </c>
     </row>
     <row r="7">
@@ -637,37 +622,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" t="n">
-        <v>13.73555840821566</v>
+        <v>13.60718870346598</v>
       </c>
       <c r="D7" t="n">
-        <v>10.00000000000106</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="E7" t="n">
-        <v>8.285132870296703</v>
+        <v>8.053686994388862</v>
       </c>
       <c r="F7" t="n">
-        <v>7.447384635961337</v>
+        <v>-8.520745332460081</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.997829409961534</v>
+        <v>-12637225.19</v>
       </c>
       <c r="H7" t="n">
-        <v>-12131140.92</v>
+        <v>11.93713177125614</v>
       </c>
       <c r="I7" t="n">
-        <v>11.83882704215285</v>
+        <v>1483112.65</v>
       </c>
       <c r="J7" t="n">
-        <v>1516804.16</v>
+        <v>12.78188276451118</v>
       </c>
       <c r="K7" t="n">
-        <v>13.12162196477919</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1250339246739209</v>
+        <v>0.1173606252718837</v>
       </c>
     </row>
     <row r="8">
@@ -695,40 +677,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>weighted_avg_execution_spread_$</t>
+          <t>volume_weighted_avg_spread_in_USD</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>volume_weighted_avg_spread_in_USD</t>
+          <t>PnL_per_lot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PnL_per_lot</t>
+          <t>total_profit</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>total_profit</t>
+          <t>pct_total_profit</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>pct_total_profit</t>
+          <t>total_volume</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>total_volume</t>
+          <t>pct_total_volume</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>pct_total_volume</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
         <is>
           <t>pct_impact_on_PnL_exec_spread</t>
         </is>
@@ -748,37 +725,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C11" t="n">
-        <v>36.71373555840822</v>
+        <v>38.12580231065468</v>
       </c>
       <c r="D11" t="n">
-        <v>9.571428571427704</v>
+        <v>9.95774647887324</v>
       </c>
       <c r="E11" t="n">
-        <v>12.75555114750273</v>
+        <v>11.64557714698581</v>
       </c>
       <c r="F11" t="n">
-        <v>9.432779370334581</v>
+        <v>-12.10709004729152</v>
       </c>
       <c r="G11" t="n">
-        <v>-13.00445841805282</v>
+        <v>-33600487.26</v>
       </c>
       <c r="H11" t="n">
-        <v>-35659504.36092</v>
+        <v>33.29042947458734</v>
       </c>
       <c r="I11" t="n">
-        <v>36.58752753804507</v>
+        <v>2775273.59</v>
       </c>
       <c r="J11" t="n">
-        <v>2742098.38</v>
+        <v>39.95509274347251</v>
       </c>
       <c r="K11" t="n">
-        <v>39.72188786567445</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.07689670479562591</v>
+        <v>0.08259623048097428</v>
       </c>
     </row>
     <row r="12">
@@ -788,37 +762,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C12" t="n">
-        <v>18.87034659820283</v>
+        <v>18.10012836970475</v>
       </c>
       <c r="D12" t="n">
-        <v>11.67741935483814</v>
+        <v>12.125</v>
       </c>
       <c r="E12" t="n">
-        <v>13.43815270688889</v>
+        <v>12.94790566732876</v>
       </c>
       <c r="F12" t="n">
-        <v>10.90173697926227</v>
+        <v>-40.74193108309967</v>
       </c>
       <c r="G12" t="n">
-        <v>-51.00386804377761</v>
+        <v>-46853968.36</v>
       </c>
       <c r="H12" t="n">
-        <v>-67098892.9522</v>
+        <v>46.42161041366776</v>
       </c>
       <c r="I12" t="n">
-        <v>68.84511261887934</v>
+        <v>1150018.35</v>
       </c>
       <c r="J12" t="n">
-        <v>1315564.79</v>
+        <v>16.55659823828224</v>
       </c>
       <c r="K12" t="n">
-        <v>19.05719993474835</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.01960635611286737</v>
+        <v>0.02454473740973005</v>
       </c>
     </row>
     <row r="13">
@@ -828,37 +799,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C13" t="n">
-        <v>37.22721437740693</v>
+        <v>36.45699614890886</v>
       </c>
       <c r="D13" t="n">
-        <v>13.79999999999929</v>
+        <v>12.30769230769231</v>
       </c>
       <c r="E13" t="n">
-        <v>12.42773581447442</v>
+        <v>12.12941745316376</v>
       </c>
       <c r="F13" t="n">
-        <v>10.72112956497705</v>
+        <v>-4.564054699990865</v>
       </c>
       <c r="G13" t="n">
-        <v>5.79161604712303</v>
+        <v>-11558985.27</v>
       </c>
       <c r="H13" t="n">
-        <v>13925616.97605413</v>
+        <v>11.45232153781358</v>
       </c>
       <c r="I13" t="n">
-        <v>-14.28802513458444</v>
+        <v>2532613.22</v>
       </c>
       <c r="J13" t="n">
-        <v>2404444.09</v>
+        <v>36.46155696254961</v>
       </c>
       <c r="K13" t="n">
-        <v>34.83064620105411</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.1726633795927731</v>
+        <v>0.2191034213507567</v>
       </c>
     </row>
     <row r="14">
@@ -868,37 +836,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="n">
-        <v>7.188703465982028</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="D14" t="n">
-        <v>10.3333333333326</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>13.26664743815789</v>
+        <v>12.25270450645865</v>
       </c>
       <c r="F14" t="n">
-        <v>10.29389833812325</v>
+        <v>-18.27156851540661</v>
       </c>
       <c r="G14" t="n">
-        <v>-19.56489849988976</v>
+        <v>-8917931.250000002</v>
       </c>
       <c r="H14" t="n">
-        <v>-8630772.84739</v>
+        <v>8.835638573931313</v>
       </c>
       <c r="I14" t="n">
-        <v>8.85538497766003</v>
+        <v>488076.94</v>
       </c>
       <c r="J14" t="n">
-        <v>441135.58</v>
+        <v>7.026752055695622</v>
       </c>
       <c r="K14" t="n">
-        <v>6.390265998523094</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.05111194417929817</v>
+        <v>0.05472983882893243</v>
       </c>
     </row>
     <row r="15">
@@ -926,40 +891,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>weighted_avg_execution_spread_$</t>
+          <t>volume_weighted_avg_spread_in_USD</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>volume_weighted_avg_spread_in_USD</t>
+          <t>PnL_per_lot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PnL_per_lot</t>
+          <t>total_profit</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>total_profit</t>
+          <t>pct_total_profit</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>pct_total_profit</t>
+          <t>total_volume</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>total_volume</t>
+          <t>pct_total_volume</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
-        <is>
-          <t>pct_total_volume</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
         <is>
           <t>pct_impact_on_PnL_exec_spread</t>
         </is>
@@ -979,37 +939,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C18" t="n">
-        <v>37.86906290115532</v>
+        <v>39.92297817715019</v>
       </c>
       <c r="D18" t="n">
-        <v>12.94736842105157</v>
+        <v>12.59090909090909</v>
       </c>
       <c r="E18" t="n">
-        <v>10.14710910780556</v>
+        <v>9.865928703026542</v>
       </c>
       <c r="F18" t="n">
-        <v>8.788812575011582</v>
+        <v>-13.98476933769847</v>
       </c>
       <c r="G18" t="n">
-        <v>-13.77723722745304</v>
+        <v>-14546943.36</v>
       </c>
       <c r="H18" t="n">
-        <v>-12914876</v>
+        <v>34.04343314010323</v>
       </c>
       <c r="I18" t="n">
-        <v>31.22784998698041</v>
+        <v>1040199.02</v>
       </c>
       <c r="J18" t="n">
-        <v>937406.8100000001</v>
+        <v>46.83244654002757</v>
       </c>
       <c r="K18" t="n">
-        <v>42.43940402036321</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.07258349286512701</v>
+        <v>0.07150636351965559</v>
       </c>
     </row>
     <row r="19">
@@ -1019,37 +976,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C19" t="n">
-        <v>22.20795892169448</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="D19" t="n">
-        <v>13.85185185185162</v>
+        <v>14.94444444444444</v>
       </c>
       <c r="E19" t="n">
-        <v>9.913176046915968</v>
+        <v>9.869182409472742</v>
       </c>
       <c r="F19" t="n">
-        <v>8.569744397110478</v>
+        <v>-27.8026173868846</v>
       </c>
       <c r="G19" t="n">
-        <v>-24.04459800357277</v>
+        <v>-15860891.66</v>
       </c>
       <c r="H19" t="n">
-        <v>-15399389</v>
+        <v>37.11839603736733</v>
       </c>
       <c r="I19" t="n">
-        <v>37.23534082581639</v>
+        <v>570481.96</v>
       </c>
       <c r="J19" t="n">
-        <v>640451.09</v>
+        <v>25.68457129843301</v>
       </c>
       <c r="K19" t="n">
-        <v>28.99526894176498</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.04158938318916419</v>
+        <v>0.03596783662791881</v>
       </c>
     </row>
     <row r="20">
@@ -1059,37 +1013,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C20" t="n">
-        <v>30.6803594351733</v>
+        <v>29.78177150192555</v>
       </c>
       <c r="D20" t="n">
-        <v>13.54166666666377</v>
+        <v>13.58333333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>10.26257807146853</v>
+        <v>10.13194677376464</v>
       </c>
       <c r="F20" t="n">
-        <v>8.37326842643302</v>
+        <v>-15.30417706108132</v>
       </c>
       <c r="G20" t="n">
-        <v>-16.21383134053318</v>
+        <v>-6916346.34</v>
       </c>
       <c r="H20" t="n">
-        <v>-7509704</v>
+        <v>16.18595524658644</v>
       </c>
       <c r="I20" t="n">
-        <v>18.1582780940852</v>
+        <v>451925.4</v>
       </c>
       <c r="J20" t="n">
-        <v>463166.53</v>
+        <v>20.34684875552043</v>
       </c>
       <c r="K20" t="n">
-        <v>20.96902997256834</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.06167573715288912</v>
+        <v>0.06534163816903363</v>
       </c>
     </row>
     <row r="21">
@@ -1105,31 +1056,28 @@
         <v>9.242618741976894</v>
       </c>
       <c r="D21" t="n">
-        <v>16.75000000000175</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="E21" t="n">
-        <v>9.795008232958333</v>
+        <v>9.832493791663456</v>
       </c>
       <c r="F21" t="n">
-        <v>8.468139945943907</v>
+        <v>-34.10927008754508</v>
       </c>
       <c r="G21" t="n">
-        <v>-32.97583646501432</v>
+        <v>-5406360.24</v>
       </c>
       <c r="H21" t="n">
-        <v>-5532948</v>
+        <v>12.65221557594299</v>
       </c>
       <c r="I21" t="n">
-        <v>13.37853109311799</v>
+        <v>158501.2</v>
       </c>
       <c r="J21" t="n">
-        <v>167787.95</v>
+        <v>7.136133406018992</v>
       </c>
       <c r="K21" t="n">
-        <v>7.596297065303482</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.03032523529951845</v>
+        <v>0.0293175432201684</v>
       </c>
     </row>
     <row r="22">
@@ -1157,40 +1105,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>weighted_avg_execution_spread_$</t>
+          <t>volume_weighted_avg_spread_in_USD</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>volume_weighted_avg_spread_in_USD</t>
+          <t>PnL_per_lot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PnL_per_lot</t>
+          <t>total_profit</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>total_profit</t>
+          <t>pct_total_profit</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>pct_total_profit</t>
+          <t>total_volume</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>total_volume</t>
+          <t>pct_total_volume</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
-        <is>
-          <t>pct_total_volume</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
         <is>
           <t>pct_impact_on_PnL_exec_spread</t>
         </is>
@@ -1210,37 +1153,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C25" t="n">
-        <v>36.95090439276486</v>
+        <v>36.43410852713178</v>
       </c>
       <c r="D25" t="n">
-        <v>21.10204081633007</v>
+        <v>21.10204081632653</v>
       </c>
       <c r="E25" t="n">
-        <v>26.52577522745342</v>
+        <v>27.64771644344644</v>
       </c>
       <c r="F25" t="n">
-        <v>23.68459282358598</v>
+        <v>-25.61993280568459</v>
       </c>
       <c r="G25" t="n">
-        <v>-22.56111494037042</v>
+        <v>-97662066.56999999</v>
       </c>
       <c r="H25" t="n">
-        <v>-86506239.59</v>
+        <v>24.7580953969749</v>
       </c>
       <c r="I25" t="n">
-        <v>22.69489839028888</v>
+        <v>3811956.39</v>
       </c>
       <c r="J25" t="n">
-        <v>3834306.94</v>
+        <v>31.90527569151477</v>
       </c>
       <c r="K25" t="n">
-        <v>32.22335455378394</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.04432405059071878</v>
+        <v>0.03903210861576181</v>
       </c>
     </row>
     <row r="26">
@@ -1250,37 +1190,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C26" t="n">
-        <v>17.57105943152455</v>
+        <v>17.05426356589147</v>
       </c>
       <c r="D26" t="n">
-        <v>19.500000000005</v>
+        <v>19.5</v>
       </c>
       <c r="E26" t="n">
-        <v>30.91586382112245</v>
+        <v>31.27024985820477</v>
       </c>
       <c r="F26" t="n">
-        <v>29.03775706630756</v>
+        <v>-67.71177022907793</v>
       </c>
       <c r="G26" t="n">
-        <v>-61.37436802842856</v>
+        <v>-145153531.57</v>
       </c>
       <c r="H26" t="n">
-        <v>-136219229.61</v>
+        <v>36.79755208991035</v>
       </c>
       <c r="I26" t="n">
-        <v>35.73709352590736</v>
+        <v>2143697.19</v>
       </c>
       <c r="J26" t="n">
-        <v>2219480.77</v>
+        <v>17.94229598887817</v>
       </c>
       <c r="K26" t="n">
-        <v>18.65242321393691</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.01629344679421873</v>
+        <v>0.0147684811166045</v>
       </c>
     </row>
     <row r="27">
@@ -1290,37 +1227,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C27" t="n">
-        <v>32.04134366925064</v>
+        <v>32.81653746770026</v>
       </c>
       <c r="D27" t="n">
-        <v>20.83333333333712</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>27.91221785343023</v>
+        <v>27.64915505976944</v>
       </c>
       <c r="F27" t="n">
-        <v>25.47266778482317</v>
+        <v>-24.04970683129639</v>
       </c>
       <c r="G27" t="n">
-        <v>-24.97212777925045</v>
+        <v>-99321905.66</v>
       </c>
       <c r="H27" t="n">
-        <v>-101792313.47</v>
+        <v>25.17887754891096</v>
       </c>
       <c r="I27" t="n">
-        <v>26.70519747550251</v>
+        <v>4129859.31</v>
       </c>
       <c r="J27" t="n">
-        <v>4076237.09</v>
+        <v>34.56605647388295</v>
       </c>
       <c r="K27" t="n">
-        <v>34.25652537779214</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.04004464532777653</v>
+        <v>0.04158054844555024</v>
       </c>
     </row>
     <row r="28">
@@ -1330,37 +1264,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C28" t="n">
-        <v>13.43669250645995</v>
+        <v>13.69509043927649</v>
       </c>
       <c r="D28" t="n">
-        <v>21.92307692307972</v>
+        <v>21.92307692307692</v>
       </c>
       <c r="E28" t="n">
-        <v>30.81230022858823</v>
+        <v>30.11645615719254</v>
       </c>
       <c r="F28" t="n">
-        <v>28.85477434328612</v>
+        <v>-28.09965755776398</v>
       </c>
       <c r="G28" t="n">
-        <v>-32.0228743749238</v>
+        <v>-52327680.23</v>
       </c>
       <c r="H28" t="n">
-        <v>-56652637.67</v>
+        <v>13.26547496420377</v>
       </c>
       <c r="I28" t="n">
-        <v>14.86281060830125</v>
+        <v>1862217.72</v>
       </c>
       <c r="J28" t="n">
-        <v>1769130.31</v>
+        <v>15.58637184572409</v>
       </c>
       <c r="K28" t="n">
-        <v>14.86769685448701</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.03122767769975925</v>
+        <v>0.03558762230266748</v>
       </c>
     </row>
   </sheetData>
